--- a/results/ML_results/3.xlsx
+++ b/results/ML_results/3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\src\ML\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOVI\Desktop\git_code\results\ML_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A15316-FAB1-4D03-8C1C-DE4B56E9A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F87A7BE-A747-4DA4-A237-D75E7AFB4944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="260">
   <si>
     <t>Seed</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>AUC</t>
-  </si>
-  <si>
-    <t>MCC</t>
   </si>
   <si>
     <t>Best_model</t>
@@ -864,18 +861,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -910,10 +901,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1219,7 +1210,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1228,142 +1219,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
         <v>234</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" t="s">
         <v>237</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
         <v>240</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
         <v>243</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>244</v>
-      </c>
-      <c r="D5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" t="s">
         <v>246</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>247</v>
-      </c>
-      <c r="D6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
         <v>249</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>250</v>
-      </c>
-      <c r="D7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" t="s">
         <v>252</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>253</v>
-      </c>
-      <c r="D8" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
         <v>255</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>256</v>
-      </c>
-      <c r="D9" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" t="s">
         <v>258</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>259</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -1374,15 +1365,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,11 +1389,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -1415,14 +1403,11 @@
       <c r="D2">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E2">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -1435,14 +1420,11 @@
       <c r="D3">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E3">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -1455,14 +1437,11 @@
       <c r="D4">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E4">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -1475,14 +1454,11 @@
       <c r="D5">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E5">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -1495,14 +1471,11 @@
       <c r="D6">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E6">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -1515,14 +1488,11 @@
       <c r="D7">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E7">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -1535,14 +1505,11 @@
       <c r="D8">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E8">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -1555,14 +1522,11 @@
       <c r="D9">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E9">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -1575,14 +1539,11 @@
       <c r="D10">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E10">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -1595,14 +1556,11 @@
       <c r="D11">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E11">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -1615,14 +1573,11 @@
       <c r="D12">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E12">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -1635,14 +1590,11 @@
       <c r="D13">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E13">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -1655,14 +1607,11 @@
       <c r="D14">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E14">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -1675,14 +1624,11 @@
       <c r="D15">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E15">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -1695,14 +1641,11 @@
       <c r="D16">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E16">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -1715,14 +1658,11 @@
       <c r="D17">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E17">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F17" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -1735,14 +1675,11 @@
       <c r="D18">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E18">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -1755,14 +1692,11 @@
       <c r="D19">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E19">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -1775,14 +1709,11 @@
       <c r="D20">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E20">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -1795,14 +1726,11 @@
       <c r="D21">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E21">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F21" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -1815,14 +1743,11 @@
       <c r="D22">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E22">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -1835,14 +1760,11 @@
       <c r="D23">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E23">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -1855,14 +1777,11 @@
       <c r="D24">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E24">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -1875,14 +1794,11 @@
       <c r="D25">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E25">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -1895,14 +1811,11 @@
       <c r="D26">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E26">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -1915,14 +1828,11 @@
       <c r="D27">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E27">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -1935,14 +1845,11 @@
       <c r="D28">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E28">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -1955,14 +1862,11 @@
       <c r="D29">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E29">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -1975,14 +1879,11 @@
       <c r="D30">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E30">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F30" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -1995,32 +1896,25 @@
       <c r="D31">
         <v>0.77828975877509754</v>
       </c>
-      <c r="E31">
-        <v>0.57810718384065041</v>
-      </c>
-      <c r="F31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>75.33±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>73.1±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>77.83±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>57.81±0</v>
       </c>
     </row>
   </sheetData>
@@ -2031,15 +1925,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2055,11 +1949,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -2072,14 +1963,11 @@
       <c r="D2">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E2">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -2092,14 +1980,11 @@
       <c r="D3">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E3">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -2112,14 +1997,11 @@
       <c r="D4">
         <v>0.50486060956232848</v>
       </c>
-      <c r="E4">
-        <v>5.5709927740136701E-2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -2132,14 +2014,11 @@
       <c r="D5">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E5">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -2152,14 +2031,11 @@
       <c r="D6">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E6">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -2172,14 +2048,11 @@
       <c r="D7">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E7">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -2192,14 +2065,11 @@
       <c r="D8">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E8">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -2212,14 +2082,11 @@
       <c r="D9">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E9">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2232,14 +2099,11 @@
       <c r="D10">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E10">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -2252,14 +2116,11 @@
       <c r="D11">
         <v>0.50486060956232848</v>
       </c>
-      <c r="E11">
-        <v>5.5709927740136701E-2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -2272,14 +2133,11 @@
       <c r="D12">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E12">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -2292,14 +2150,11 @@
       <c r="D13">
         <v>0.83433482594251052</v>
       </c>
-      <c r="E13">
-        <v>0.66527648687174123</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -2312,14 +2167,11 @@
       <c r="D14">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E14">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -2332,14 +2184,11 @@
       <c r="D15">
         <v>0.50486060956232848</v>
       </c>
-      <c r="E15">
-        <v>5.5709927740136701E-2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -2352,14 +2201,11 @@
       <c r="D16">
         <v>0.83433482594251052</v>
       </c>
-      <c r="E16">
-        <v>0.66527648687174123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -2372,14 +2218,11 @@
       <c r="D17">
         <v>0.50486060956232848</v>
       </c>
-      <c r="E17">
-        <v>5.5709927740136701E-2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -2392,14 +2235,11 @@
       <c r="D18">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E18">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -2412,14 +2252,11 @@
       <c r="D19">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E19">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -2432,14 +2269,11 @@
       <c r="D20">
         <v>0.83433482594251052</v>
       </c>
-      <c r="E20">
-        <v>0.66527648687174123</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -2452,14 +2286,11 @@
       <c r="D21">
         <v>0.5</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -2472,14 +2303,11 @@
       <c r="D22">
         <v>0.50486060956232848</v>
       </c>
-      <c r="E22">
-        <v>5.5709927740136701E-2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -2492,14 +2320,11 @@
       <c r="D23">
         <v>0.83433482594251052</v>
       </c>
-      <c r="E23">
-        <v>0.66527648687174123</v>
-      </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -2512,14 +2337,11 @@
       <c r="D24">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E24">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -2532,14 +2354,11 @@
       <c r="D25">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E25">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -2552,14 +2371,11 @@
       <c r="D26">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E26">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -2572,14 +2388,11 @@
       <c r="D27">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E27">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -2592,14 +2405,11 @@
       <c r="D28">
         <v>0.50486060956232848</v>
       </c>
-      <c r="E28">
-        <v>5.5709927740136701E-2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -2612,14 +2422,11 @@
       <c r="D29">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E29">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -2632,14 +2439,11 @@
       <c r="D30">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E30">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -2652,32 +2456,25 @@
       <c r="D31">
         <v>0.74967499638884871</v>
       </c>
-      <c r="E31">
-        <v>0.51274540197677521</v>
-      </c>
-      <c r="F31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>72.73±9</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>79.04±4</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>70.37±12</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>42.46±22</v>
       </c>
     </row>
   </sheetData>
@@ -2688,15 +2485,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2712,11 +2509,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -2729,14 +2523,11 @@
       <c r="D2">
         <v>0.90951899465549613</v>
       </c>
-      <c r="E2">
-        <v>0.81168488097615543</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -2749,14 +2540,11 @@
       <c r="D3">
         <v>0.89852665029611434</v>
       </c>
-      <c r="E3">
-        <v>0.78993118460584366</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -2769,14 +2557,11 @@
       <c r="D4">
         <v>0.90670951899465535</v>
       </c>
-      <c r="E4">
-        <v>0.80623075843655645</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -2789,14 +2574,11 @@
       <c r="D5">
         <v>0.8984038711541239</v>
       </c>
-      <c r="E5">
-        <v>0.79015880064754396</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -2809,14 +2591,11 @@
       <c r="D6">
         <v>0.91232847031633679</v>
       </c>
-      <c r="E6">
-        <v>0.81732295905585095</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -2829,14 +2608,11 @@
       <c r="D7">
         <v>0.90683229813664601</v>
       </c>
-      <c r="E7">
-        <v>0.8063940490911049</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -2849,14 +2625,11 @@
       <c r="D8">
         <v>0.90018777986422072</v>
       </c>
-      <c r="E8">
-        <v>0.79320125055104196</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -2869,14 +2642,11 @@
       <c r="D9">
         <v>0.89622995811064565</v>
       </c>
-      <c r="E9">
-        <v>0.78574681071669439</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -2889,14 +2659,11 @@
       <c r="D10">
         <v>0.89852665029611434</v>
       </c>
-      <c r="E10">
-        <v>0.78993118460584366</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -2909,14 +2676,11 @@
       <c r="D11">
         <v>0.91003177813086811</v>
       </c>
-      <c r="E11">
-        <v>0.81273583080151435</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -2929,14 +2693,11 @@
       <c r="D12">
         <v>0.90849342770475228</v>
       </c>
-      <c r="E12">
-        <v>0.80972108675971577</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -2949,14 +2710,11 @@
       <c r="D13">
         <v>0.89571717463527367</v>
       </c>
-      <c r="E13">
-        <v>0.78456282672449995</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -2969,14 +2727,11 @@
       <c r="D14">
         <v>0.90683229813664601</v>
       </c>
-      <c r="E14">
-        <v>0.8063940490911049</v>
-      </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -2989,14 +2744,11 @@
       <c r="D15">
         <v>0.90900621118012426</v>
       </c>
-      <c r="E15">
-        <v>0.81068002201689326</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -3009,14 +2761,11 @@
       <c r="D16">
         <v>0.90568395204391161</v>
       </c>
-      <c r="E16">
-        <v>0.80408365576719742</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -3029,14 +2778,11 @@
       <c r="D17">
         <v>0.8513794597717752</v>
       </c>
-      <c r="E17">
-        <v>0.70275891954355052</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -3049,14 +2795,11 @@
       <c r="D18">
         <v>0.90849342770475228</v>
       </c>
-      <c r="E18">
-        <v>0.80972108675971577</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -3069,14 +2812,11 @@
       <c r="D19">
         <v>0.91118012422360251</v>
       </c>
-      <c r="E19">
-        <v>0.81497731374086424</v>
-      </c>
-      <c r="F19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -3089,14 +2829,11 @@
       <c r="D20">
         <v>0.89737830420338005</v>
       </c>
-      <c r="E20">
-        <v>0.78778914827477053</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -3109,14 +2846,11 @@
       <c r="D21">
         <v>0.90018777986422072</v>
       </c>
-      <c r="E21">
-        <v>0.79320125055104196</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -3129,14 +2863,11 @@
       <c r="D22">
         <v>0.90172613029033655</v>
       </c>
-      <c r="E22">
-        <v>0.79655554706596454</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -3149,14 +2880,11 @@
       <c r="D23">
         <v>0.90287447638307083</v>
       </c>
-      <c r="E23">
-        <v>0.79862845465714838</v>
-      </c>
-      <c r="F23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3169,14 +2897,11 @@
       <c r="D24">
         <v>0.90453560595117721</v>
       </c>
-      <c r="E24">
-        <v>0.80187584002095469</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -3189,14 +2914,11 @@
       <c r="D25">
         <v>0.90236169290769896</v>
       </c>
-      <c r="E25">
-        <v>0.79753273333773389</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -3209,14 +2931,11 @@
       <c r="D26">
         <v>0.89342048244980499</v>
       </c>
-      <c r="E26">
-        <v>0.78064120212353272</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -3229,14 +2948,11 @@
       <c r="D27">
         <v>0.9024844720496894</v>
       </c>
-      <c r="E27">
-        <v>0.79785533901856442</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -3249,14 +2965,11 @@
       <c r="D28">
         <v>0.87348692763252922</v>
       </c>
-      <c r="E28">
-        <v>0.74343849842111331</v>
-      </c>
-      <c r="F28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -3269,14 +2982,11 @@
       <c r="D29">
         <v>0.90504838942654908</v>
       </c>
-      <c r="E29">
-        <v>0.80299483474844069</v>
-      </c>
-      <c r="F29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -3289,14 +2999,11 @@
       <c r="D30">
         <v>0.89342048244980499</v>
       </c>
-      <c r="E30">
-        <v>0.78064120212353272</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -3309,32 +3016,25 @@
       <c r="D31">
         <v>0.90568395204391161</v>
       </c>
-      <c r="E31">
-        <v>0.80408365576719742</v>
-      </c>
-      <c r="F31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>89.23±1</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>89.8±2</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>90.06±1</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>79.44±2</v>
       </c>
     </row>
   </sheetData>
@@ -3345,15 +3045,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3369,11 +3069,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -3386,14 +3083,11 @@
       <c r="D2">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E2">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -3406,14 +3100,11 @@
       <c r="D3">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E3">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -3426,14 +3117,11 @@
       <c r="D4">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E4">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -3446,14 +3134,11 @@
       <c r="D5">
         <v>0.59147046078289756</v>
       </c>
-      <c r="E5">
-        <v>0.23651189132385211</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -3466,14 +3151,11 @@
       <c r="D6">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E6">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -3486,14 +3168,11 @@
       <c r="D7">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E7">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -3506,14 +3185,11 @@
       <c r="D8">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E8">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -3526,14 +3202,11 @@
       <c r="D9">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E9">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -3546,14 +3219,11 @@
       <c r="D10">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E10">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -3566,14 +3236,11 @@
       <c r="D11">
         <v>0.59147046078289756</v>
       </c>
-      <c r="E11">
-        <v>0.23651189132385211</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -3586,14 +3253,11 @@
       <c r="D12">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E12">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -3606,14 +3270,11 @@
       <c r="D13">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E13">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -3626,14 +3287,11 @@
       <c r="D14">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E14">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -3646,14 +3304,11 @@
       <c r="D15">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E15">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -3666,14 +3321,11 @@
       <c r="D16">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E16">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -3686,14 +3338,11 @@
       <c r="D17">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E17">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -3706,14 +3355,11 @@
       <c r="D18">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E18">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -3726,14 +3372,11 @@
       <c r="D19">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E19">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -3746,14 +3389,11 @@
       <c r="D20">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E20">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -3766,14 +3406,11 @@
       <c r="D21">
         <v>0.59147046078289756</v>
       </c>
-      <c r="E21">
-        <v>0.23651189132385211</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -3786,14 +3423,11 @@
       <c r="D22">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E22">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -3806,14 +3440,11 @@
       <c r="D23">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E23">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -3826,14 +3457,11 @@
       <c r="D24">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E24">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -3846,14 +3474,11 @@
       <c r="D25">
         <v>0.61040011555683948</v>
       </c>
-      <c r="E25">
-        <v>0.27088017104222628</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -3866,14 +3491,11 @@
       <c r="D26">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E26">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -3886,14 +3508,11 @@
       <c r="D27">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E27">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -3906,14 +3525,11 @@
       <c r="D28">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E28">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -3926,14 +3542,11 @@
       <c r="D29">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E29">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -3946,14 +3559,11 @@
       <c r="D30">
         <v>0.59965332948143868</v>
       </c>
-      <c r="E30">
-        <v>0.25558669545810042</v>
-      </c>
-      <c r="F30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -3966,32 +3576,25 @@
       <c r="D31">
         <v>0.59850498338870439</v>
       </c>
-      <c r="E31">
-        <v>0.249687458318786</v>
-      </c>
-      <c r="F31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>64.33±1</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>74.02±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>60.42±1</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>26.11±1</v>
       </c>
     </row>
   </sheetData>
@@ -4002,15 +3605,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4026,11 +3629,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4043,14 +3643,11 @@
       <c r="D2">
         <v>0.73669651885020948</v>
       </c>
-      <c r="E2">
-        <v>0.46984342722785621</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4063,14 +3660,11 @@
       <c r="D3">
         <v>0.72519139101545571</v>
       </c>
-      <c r="E3">
-        <v>0.44700570777666238</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4083,14 +3677,11 @@
       <c r="D4">
         <v>0.7434638162646251</v>
       </c>
-      <c r="E4">
-        <v>0.48259720358327468</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4103,14 +3694,11 @@
       <c r="D5">
         <v>0.74832442582695358</v>
       </c>
-      <c r="E5">
-        <v>0.49238569251512959</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4123,14 +3711,11 @@
       <c r="D6">
         <v>0.74602773364148489</v>
       </c>
-      <c r="E6">
-        <v>0.48826866660872659</v>
-      </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4143,14 +3728,11 @@
       <c r="D7">
         <v>0.73938321536905971</v>
       </c>
-      <c r="E7">
-        <v>0.47550139936624342</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4163,14 +3745,11 @@
       <c r="D8">
         <v>0.74500216669074104</v>
       </c>
-      <c r="E8">
-        <v>0.48591550485591128</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4183,14 +3762,11 @@
       <c r="D9">
         <v>0.73298425538061529</v>
       </c>
-      <c r="E9">
-        <v>0.46196870706004622</v>
-      </c>
-      <c r="F9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4203,14 +3779,11 @@
       <c r="D10">
         <v>0.74116712407915641</v>
       </c>
-      <c r="E10">
-        <v>0.47830942246112051</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4223,14 +3796,11 @@
       <c r="D11">
         <v>0.72250469449660548</v>
       </c>
-      <c r="E11">
-        <v>0.44142771514689072</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4243,14 +3813,11 @@
       <c r="D12">
         <v>0.73630651451682794</v>
       </c>
-      <c r="E12">
-        <v>0.46846973232769701</v>
-      </c>
-      <c r="F12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4263,14 +3830,11 @@
       <c r="D13">
         <v>0.74104434493716598</v>
       </c>
-      <c r="E13">
-        <v>0.47868506850221493</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4283,14 +3847,11 @@
       <c r="D14">
         <v>0.73503538928210299</v>
       </c>
-      <c r="E14">
-        <v>0.46664568690569319</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4303,14 +3864,11 @@
       <c r="D15">
         <v>0.73337425971399672</v>
       </c>
-      <c r="E15">
-        <v>0.46345320205279611</v>
-      </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -4323,14 +3881,11 @@
       <c r="D16">
         <v>0.75267225191391018</v>
       </c>
-      <c r="E16">
-        <v>0.50112766964549293</v>
-      </c>
-      <c r="F16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -4343,14 +3898,11 @@
       <c r="D17">
         <v>0.73669651885020948</v>
       </c>
-      <c r="E17">
-        <v>0.46984342722785621</v>
-      </c>
-      <c r="F17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -4363,14 +3915,11 @@
       <c r="D18">
         <v>0.72736530405893407</v>
       </c>
-      <c r="E18">
-        <v>0.45141729003097841</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -4383,14 +3932,11 @@
       <c r="D19">
         <v>0.74219269102990049</v>
       </c>
-      <c r="E19">
-        <v>0.48065760945419173</v>
-      </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -4403,14 +3949,11 @@
       <c r="D20">
         <v>0.74385382059800675</v>
       </c>
-      <c r="E20">
-        <v>0.48386484218785381</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -4423,14 +3966,11 @@
       <c r="D21">
         <v>0.72672974144157154</v>
       </c>
-      <c r="E21">
-        <v>0.4507332488581669</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -4443,14 +3983,11 @@
       <c r="D22">
         <v>0.73835764841831575</v>
       </c>
-      <c r="E22">
-        <v>0.4730465522996567</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -4463,14 +4000,11 @@
       <c r="D23">
         <v>0.73950599451105004</v>
       </c>
-      <c r="E23">
-        <v>0.4750823739158862</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -4483,14 +4017,11 @@
       <c r="D24">
         <v>0.74219269102990049</v>
       </c>
-      <c r="E24">
-        <v>0.48065760945419173</v>
-      </c>
-      <c r="F24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -4503,14 +4034,11 @@
       <c r="D25">
         <v>0.73286147623862485</v>
       </c>
-      <c r="E25">
-        <v>0.46223085407745829</v>
-      </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -4523,14 +4051,11 @@
       <c r="D26">
         <v>0.73171313014589057</v>
       </c>
-      <c r="E26">
-        <v>0.46026584389401681</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -4543,14 +4068,11 @@
       <c r="D27">
         <v>0.72531417015744626</v>
       </c>
-      <c r="E27">
-        <v>0.44676021433250451</v>
-      </c>
-      <c r="F27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -4563,14 +4085,11 @@
       <c r="D28">
         <v>0.74219269102990049</v>
       </c>
-      <c r="E28">
-        <v>0.48065760945419173</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -4583,14 +4102,11 @@
       <c r="D29">
         <v>0.74627329192546576</v>
       </c>
-      <c r="E29">
-        <v>0.48812462975566873</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -4603,14 +4119,11 @@
       <c r="D30">
         <v>0.74167990755452839</v>
       </c>
-      <c r="E30">
-        <v>0.47946947649832522</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -4623,32 +4136,25 @@
       <c r="D31">
         <v>0.73503538928210299</v>
       </c>
-      <c r="E31">
-        <v>0.46664568690569319</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>73.04±1</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>74.17±1</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>73.77±1</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>47.17±1</v>
       </c>
     </row>
   </sheetData>
@@ -4659,15 +4165,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4683,11 +4189,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -4700,14 +4203,11 @@
       <c r="D2">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E2">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -4720,14 +4220,11 @@
       <c r="D3">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E3">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -4740,14 +4237,11 @@
       <c r="D4">
         <v>0.91218402426693623</v>
       </c>
-      <c r="E4">
-        <v>0.821065757600424</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -4760,14 +4254,11 @@
       <c r="D5">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E5">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -4780,14 +4271,11 @@
       <c r="D6">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E6">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -4800,14 +4288,11 @@
       <c r="D7">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E7">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -4820,14 +4305,11 @@
       <c r="D8">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E8">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -4840,14 +4322,11 @@
       <c r="D9">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E9">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -4860,14 +4339,11 @@
       <c r="D10">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E10">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -4880,14 +4356,11 @@
       <c r="D11">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E11">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -4900,14 +4373,11 @@
       <c r="D12">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E12">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -4920,14 +4390,11 @@
       <c r="D13">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E13">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -4940,14 +4407,11 @@
       <c r="D14">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E14">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -4960,14 +4424,11 @@
       <c r="D15">
         <v>0.91218402426693623</v>
       </c>
-      <c r="E15">
-        <v>0.821065757600424</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -4980,14 +4441,11 @@
       <c r="D16">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E16">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -5000,14 +4458,11 @@
       <c r="D17">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E17">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5020,14 +4475,11 @@
       <c r="D18">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E18">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5040,14 +4492,11 @@
       <c r="D19">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E19">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5060,14 +4509,11 @@
       <c r="D20">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E20">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5080,14 +4526,11 @@
       <c r="D21">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E21">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5100,14 +4543,11 @@
       <c r="D22">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E22">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5120,14 +4560,11 @@
       <c r="D23">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E23">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5140,14 +4577,11 @@
       <c r="D24">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E24">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5160,14 +4594,11 @@
       <c r="D25">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E25">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5180,14 +4611,11 @@
       <c r="D26">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E26">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5200,14 +4628,11 @@
       <c r="D27">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E27">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5220,14 +4645,11 @@
       <c r="D28">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E28">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5240,14 +4662,11 @@
       <c r="D29">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E29">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F29" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5260,14 +4679,11 @@
       <c r="D30">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E30">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5280,32 +4696,25 @@
       <c r="D31">
         <v>0.91435793731041448</v>
       </c>
-      <c r="E31">
-        <v>0.82508883168136726</v>
-      </c>
-      <c r="F31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>91.32±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>92.22±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>91.42±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>82.48±0</v>
       </c>
     </row>
   </sheetData>
@@ -5316,15 +4725,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5340,11 +4749,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -5357,14 +4763,11 @@
       <c r="D2">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E2">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -5377,14 +4780,11 @@
       <c r="D3">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E3">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -5397,14 +4797,11 @@
       <c r="D4">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E4">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -5417,14 +4814,11 @@
       <c r="D5">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E5">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -5437,14 +4831,11 @@
       <c r="D6">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E6">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -5457,14 +4848,11 @@
       <c r="D7">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E7">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -5477,14 +4865,11 @@
       <c r="D8">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E8">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -5497,14 +4882,11 @@
       <c r="D9">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E9">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -5517,14 +4899,11 @@
       <c r="D10">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E10">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -5537,14 +4916,11 @@
       <c r="D11">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E11">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -5557,14 +4933,11 @@
       <c r="D12">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E12">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -5577,14 +4950,11 @@
       <c r="D13">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E13">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -5597,14 +4967,11 @@
       <c r="D14">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E14">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -5617,14 +4984,11 @@
       <c r="D15">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E15">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -5637,14 +5001,11 @@
       <c r="D16">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E16">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -5657,14 +5018,11 @@
       <c r="D17">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E17">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -5677,14 +5035,11 @@
       <c r="D18">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E18">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -5697,14 +5052,11 @@
       <c r="D19">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E19">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -5717,14 +5069,11 @@
       <c r="D20">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E20">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -5737,14 +5086,11 @@
       <c r="D21">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E21">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F21" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -5757,14 +5103,11 @@
       <c r="D22">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E22">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -5777,14 +5120,11 @@
       <c r="D23">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E23">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -5797,14 +5137,11 @@
       <c r="D24">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E24">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -5817,14 +5154,11 @@
       <c r="D25">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E25">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -5837,14 +5171,11 @@
       <c r="D26">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E26">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -5857,14 +5188,11 @@
       <c r="D27">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E27">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -5877,14 +5205,11 @@
       <c r="D28">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E28">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -5897,14 +5222,11 @@
       <c r="D29">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E29">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -5917,14 +5239,11 @@
       <c r="D30">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E30">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -5937,32 +5256,25 @@
       <c r="D31">
         <v>0.92522750252780583</v>
       </c>
-      <c r="E31">
-        <v>0.84534200277202853</v>
-      </c>
-      <c r="F31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>92.28±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>93.02±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>92.52±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>84.53±0</v>
       </c>
     </row>
   </sheetData>
@@ -5973,15 +5285,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5997,11 +5309,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -6014,14 +5323,11 @@
       <c r="D2">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E2">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -6034,14 +5340,11 @@
       <c r="D3">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E3">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -6054,14 +5357,11 @@
       <c r="D4">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E4">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -6074,14 +5374,11 @@
       <c r="D5">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E5">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -6094,14 +5391,11 @@
       <c r="D6">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E6">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -6114,14 +5408,11 @@
       <c r="D7">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E7">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -6134,14 +5425,11 @@
       <c r="D8">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E8">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -6154,14 +5442,11 @@
       <c r="D9">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E9">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -6174,14 +5459,11 @@
       <c r="D10">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E10">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -6194,14 +5476,11 @@
       <c r="D11">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E11">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -6214,14 +5493,11 @@
       <c r="D12">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E12">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -6234,14 +5510,11 @@
       <c r="D13">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E13">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -6254,14 +5527,11 @@
       <c r="D14">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E14">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -6274,14 +5544,11 @@
       <c r="D15">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E15">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -6294,14 +5561,11 @@
       <c r="D16">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E16">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -6314,14 +5578,11 @@
       <c r="D17">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E17">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -6334,14 +5595,11 @@
       <c r="D18">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E18">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -6354,14 +5612,11 @@
       <c r="D19">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E19">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -6374,14 +5629,11 @@
       <c r="D20">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E20">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -6394,14 +5646,11 @@
       <c r="D21">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E21">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -6414,14 +5663,11 @@
       <c r="D22">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E22">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -6434,14 +5680,11 @@
       <c r="D23">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E23">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -6454,14 +5697,11 @@
       <c r="D24">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E24">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -6474,14 +5714,11 @@
       <c r="D25">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E25">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -6494,14 +5731,11 @@
       <c r="D26">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E26">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -6514,14 +5748,11 @@
       <c r="D27">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E27">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -6534,14 +5765,11 @@
       <c r="D28">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E28">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -6554,14 +5782,11 @@
       <c r="D29">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E29">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -6574,14 +5799,11 @@
       <c r="D30">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E30">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -6594,32 +5816,25 @@
       <c r="D31">
         <v>0.72289469882998703</v>
       </c>
-      <c r="E31">
-        <v>0.44310927678975398</v>
-      </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>71.37±0</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>72.16±0</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>72.29±0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>44.31±0</v>
       </c>
     </row>
   </sheetData>
@@ -6630,15 +5845,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6654,11 +5869,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32416</v>
       </c>
@@ -6671,14 +5883,11 @@
       <c r="D2">
         <v>0.78505705618951338</v>
       </c>
-      <c r="E2">
-        <v>0.58479359968623612</v>
-      </c>
-      <c r="F2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31764</v>
       </c>
@@ -6691,14 +5900,11 @@
       <c r="D3">
         <v>0.74404160046222734</v>
       </c>
-      <c r="E3">
-        <v>0.51839757862395175</v>
-      </c>
-      <c r="F3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31861</v>
       </c>
@@ -6711,14 +5917,11 @@
       <c r="D4">
         <v>0.72513361259569553</v>
       </c>
-      <c r="E4">
-        <v>0.49168444175715492</v>
-      </c>
-      <c r="F4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>32342</v>
       </c>
@@ -6731,14 +5934,11 @@
       <c r="D5">
         <v>0.72615917954643949</v>
       </c>
-      <c r="E5">
-        <v>0.49783252157594099</v>
-      </c>
-      <c r="F5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32486</v>
       </c>
@@ -6751,14 +5951,11 @@
       <c r="D6">
         <v>0.68307092301025563</v>
       </c>
-      <c r="E6">
-        <v>0.39471418364514732</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32249</v>
       </c>
@@ -6771,14 +5968,11 @@
       <c r="D7">
         <v>0.67517694641051562</v>
       </c>
-      <c r="E7">
-        <v>0.41885240333220097</v>
-      </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32313</v>
       </c>
@@ -6791,14 +5985,11 @@
       <c r="D8">
         <v>0.76678463094034399</v>
       </c>
-      <c r="E8">
-        <v>0.55420692577311814</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31691</v>
       </c>
@@ -6811,14 +6002,11 @@
       <c r="D9">
         <v>0.69484327603640028</v>
       </c>
-      <c r="E9">
-        <v>0.43339603229783552</v>
-      </c>
-      <c r="F9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>32289</v>
       </c>
@@ -6831,14 +6019,11 @@
       <c r="D10">
         <v>0.79961721796908858</v>
       </c>
-      <c r="E10">
-        <v>0.60489661938928962</v>
-      </c>
-      <c r="F10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>32538</v>
       </c>
@@ -6851,14 +6036,11 @@
       <c r="D11">
         <v>0.6597139968221869</v>
       </c>
-      <c r="E11">
-        <v>0.39055549173976079</v>
-      </c>
-      <c r="F11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32487</v>
       </c>
@@ -6871,14 +6053,11 @@
       <c r="D12">
         <v>0.70263614040155997</v>
       </c>
-      <c r="E12">
-        <v>0.44427581004500571</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31673</v>
       </c>
@@ -6891,14 +6070,11 @@
       <c r="D13">
         <v>0.75222446916076835</v>
       </c>
-      <c r="E13">
-        <v>0.53747271838916921</v>
-      </c>
-      <c r="F13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32140</v>
       </c>
@@ -6911,14 +6087,11 @@
       <c r="D14">
         <v>0.75222446916076835</v>
       </c>
-      <c r="E14">
-        <v>0.53747271838916921</v>
-      </c>
-      <c r="F14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31632</v>
       </c>
@@ -6931,14 +6104,11 @@
       <c r="D15">
         <v>0.63822042467138518</v>
       </c>
-      <c r="E15">
-        <v>0.31535646002876522</v>
-      </c>
-      <c r="F15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>31732</v>
       </c>
@@ -6951,14 +6121,11 @@
       <c r="D16">
         <v>0.77279358659540665</v>
       </c>
-      <c r="E16">
-        <v>0.56739748137289536</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31607</v>
       </c>
@@ -6971,14 +6138,11 @@
       <c r="D17">
         <v>0.69115267947421644</v>
       </c>
-      <c r="E17">
-        <v>0.45031455275892801</v>
-      </c>
-      <c r="F17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>31786</v>
       </c>
@@ -6991,14 +6155,11 @@
       <c r="D18">
         <v>0.75835620395782166</v>
       </c>
-      <c r="E18">
-        <v>0.54549066648864031</v>
-      </c>
-      <c r="F18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31687</v>
       </c>
@@ -7011,14 +6172,11 @@
       <c r="D19">
         <v>0.74289325436949305</v>
       </c>
-      <c r="E19">
-        <v>0.51842231590454813</v>
-      </c>
-      <c r="F19" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32397</v>
       </c>
@@ -7031,14 +6189,11 @@
       <c r="D20">
         <v>0.70341614906832306</v>
       </c>
-      <c r="E20">
-        <v>0.4641035999953062</v>
-      </c>
-      <c r="F20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>31948</v>
       </c>
@@ -7051,14 +6206,11 @@
       <c r="D21">
         <v>0.70481005344503822</v>
       </c>
-      <c r="E21">
-        <v>0.4499333243502931</v>
-      </c>
-      <c r="F21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>31924</v>
       </c>
@@ -7071,14 +6223,11 @@
       <c r="D22">
         <v>0.76448793875487508</v>
       </c>
-      <c r="E22">
-        <v>0.55372384088459181</v>
-      </c>
-      <c r="F22" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>32543</v>
       </c>
@@ -7091,14 +6240,11 @@
       <c r="D23">
         <v>0.58533150368337439</v>
       </c>
-      <c r="E23">
-        <v>0.22953944596105261</v>
-      </c>
-      <c r="F23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32479</v>
       </c>
@@ -7111,14 +6257,11 @@
       <c r="D24">
         <v>0.78390871009677887</v>
       </c>
-      <c r="E24">
-        <v>0.58430561882746668</v>
-      </c>
-      <c r="F24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31956</v>
       </c>
@@ -7131,14 +6274,11 @@
       <c r="D25">
         <v>0.72449804997833311</v>
       </c>
-      <c r="E25">
-        <v>0.49518207895152189</v>
-      </c>
-      <c r="F25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31690</v>
       </c>
@@ -7151,14 +6291,11 @@
       <c r="D26">
         <v>0.67298136645962736</v>
       </c>
-      <c r="E26">
-        <v>0.38233692263178198</v>
-      </c>
-      <c r="F26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>31677</v>
       </c>
@@ -7171,14 +6308,11 @@
       <c r="D27">
         <v>0.75158890654340615</v>
       </c>
-      <c r="E27">
-        <v>0.54056875221216449</v>
-      </c>
-      <c r="F27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32200</v>
       </c>
@@ -7191,14 +6325,11 @@
       <c r="D28">
         <v>0.73253647262747368</v>
       </c>
-      <c r="E28">
-        <v>0.49395817812830339</v>
-      </c>
-      <c r="F28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>32168</v>
       </c>
@@ -7211,14 +6342,11 @@
       <c r="D29">
         <v>0.76512350137223761</v>
       </c>
-      <c r="E29">
-        <v>0.55144407465297751</v>
-      </c>
-      <c r="F29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>32230</v>
       </c>
@@ -7231,14 +6359,11 @@
       <c r="D30">
         <v>0.78442149357215074</v>
       </c>
-      <c r="E30">
-        <v>0.58666355649056756</v>
-      </c>
-      <c r="F30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31692</v>
       </c>
@@ -7251,32 +6376,25 @@
       <c r="D31">
         <v>0.78825653618373537</v>
       </c>
-      <c r="E31">
-        <v>0.59457392820526478</v>
-      </c>
-      <c r="F31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B33" s="3" t="str">
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f>FIXED(AVERAGE(B2:B31),4)*100&amp;"±"&amp;FIXED(STDEV(B2:B31),2)*100</f>
         <v>69.72±6</v>
       </c>
-      <c r="C33" s="3" t="str">
-        <f t="shared" ref="C33:E33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
+      <c r="C33" s="2" t="str">
+        <f t="shared" ref="C33:D33" si="0">FIXED(AVERAGE(C2:C31),4)*100&amp;"±"&amp;FIXED(STDEV(C2:C31),2)*100</f>
         <v>64.65±9</v>
       </c>
-      <c r="D33" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>72.77±5</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>49.11±9</v>
       </c>
     </row>
   </sheetData>
